--- a/biology/Médecine/Macule_(médecine)/Macule_(médecine).xlsx
+++ b/biology/Médecine/Macule_(médecine)/Macule_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Macule_(m%C3%A9decine)</t>
+          <t>Macule_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La macule est une lésion cutanée, visible mais non palpable, sous forme d'une tache de couleur et de taille variables. Elle ne présente pas de relief notable à la surface de la peau.
 Les macules sont généralement classées selon leur couleur et les effets de la vitropression.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Macule_(m%C3%A9decine)</t>
+          <t>Macule_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,20 +526,93 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Couleurs
-taches rouges érythèmateuses
+          <t>Couleurs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>taches rouges érythèmateuses
 taches rouges purpuriques
 taches violacées érythro-cyaniques
 taches vasculaires ou angiomes
 taches blanches ou dyschromie (macule leucodermique)
-taches noires ou nævi
-Taille
-La taille d'une macule varie, selon les auteurs de 5 à 20 mm ; les auteurs anglophones désignent sous le terme de patch les macules d'une taille supérieure à 2 cm.
+taches noires ou nævi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Macule_(médecine)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macule_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La taille d'une macule varie, selon les auteurs de 5 à 20 mm ; les auteurs anglophones désignent sous le terme de patch les macules d'une taille supérieure à 2 cm.
 taches généralisées diffuses (érythrodermie, exanthème)
 taches généralisées intermittentes (érythème morbiliforme)
-taches localisées (érythèmes, purpura, vitiligo...etc)
-Localisation
-Thorax
+taches localisées (érythèmes, purpura, vitiligo...etc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Macule_(médecine)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macule_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thorax
 Membres
 Visage et cuir chevelu
 Plis cutanées (aines, interfessier, aisselles, sous-mammaires, rétro-auriculaire...)
